--- a/VoiceMaster_Defect.xlsx
+++ b/VoiceMaster_Defect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21E3FA9-822E-4D36-A420-39B33C93A006}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0DB956-CB80-4AA2-85DD-93A51BF246B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F9BF8B5F-BB14-4C16-AC1D-AD8C94F580A8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Failed scenario</t>
   </si>
@@ -119,6 +119,36 @@
   </si>
   <si>
     <t>Add multiple accounts &amp; Single wallet per user- creating multiple accounts for the user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is able to overwrite user details by giving userId in :
+curl -X POST \
+  http://localhost:8080/api/customer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF we are placing this request: 
+{
+        "fname": "Madhu1",
+        "lname": "Sharma",
+        "email": "Madhu1",
+        "secretCode": "9999",
+        "userId":1
+    }
+It overwrites existing userId 1. Ideally it should not be allowed to enter UserId.
+</t>
+  </si>
+  <si>
+    <t>In SWAGGER,  example of above mentioned Request states UserID</t>
+  </si>
+  <si>
+    <t>This is the example of Add user API in swagger, which is incorrect as UserId should not be allowed. It should be generated automatically.
+{
+  "email": "string",
+  "fname": "string",
+  "lname": "string",
+  "secretCode": "string",
+  "userId": 0
+}</t>
   </si>
 </sst>
 </file>
@@ -601,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE95D8E8-891E-44C7-A017-12DE08BF73F3}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,6 +825,30 @@
       </c>
       <c r="D22" s="2"/>
     </row>
+    <row r="23" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>8</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
